--- a/results/20250402/evaluation_chd_49_noisy_0.0.xlsx
+++ b/results/20250402/evaluation_chd_49_noisy_0.0.xlsx
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.50715</v>
+        <v>0.52877</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01898</v>
+        <v>0.02136</v>
       </c>
     </row>
     <row r="27">
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.12973</v>
+        <v>0.12432</v>
       </c>
       <c r="I27" t="n">
-        <v>0.02709</v>
+        <v>0.02756</v>
       </c>
     </row>
     <row r="28">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.47916</v>
+        <v>0.47844</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01762</v>
+        <v>0.02364</v>
       </c>
     </row>
     <row r="29">
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.50054</v>
+        <v>0.53009</v>
       </c>
       <c r="I30" t="n">
-        <v>0.02138</v>
+        <v>0.02212</v>
       </c>
     </row>
     <row r="31">
@@ -1672,10 +1672,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.12072</v>
+        <v>0.12432</v>
       </c>
       <c r="I31" t="n">
-        <v>0.02939</v>
+        <v>0.02983</v>
       </c>
     </row>
     <row r="32">
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.46294</v>
+        <v>0.46967</v>
       </c>
       <c r="I32" t="n">
-        <v>0.02913</v>
+        <v>0.02593</v>
       </c>
     </row>
     <row r="33">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.45441</v>
+        <v>0.58474</v>
       </c>
       <c r="I34" t="n">
-        <v>0.01873</v>
+        <v>0.02071</v>
       </c>
     </row>
     <row r="35">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.03423</v>
+        <v>0.01802</v>
       </c>
       <c r="I35" t="n">
-        <v>0.01924</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="36">
@@ -1873,10 +1873,10 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.43724</v>
+        <v>0.5855900000000001</v>
       </c>
       <c r="I36" t="n">
-        <v>0.02191</v>
+        <v>0.01891</v>
       </c>
     </row>
     <row r="37">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.0036</v>
+        <v>0.02162</v>
       </c>
       <c r="I37" t="n">
-        <v>0.00721</v>
+        <v>0.00919</v>
       </c>
     </row>
     <row r="38">
@@ -1953,10 +1953,10 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.45429</v>
+        <v>0.58511</v>
       </c>
       <c r="I38" t="n">
-        <v>0.01855</v>
+        <v>0.02008</v>
       </c>
     </row>
     <row r="39">
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.03423</v>
+        <v>0.01802</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01924</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="40">
@@ -2033,10 +2033,10 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.43664</v>
+        <v>0.58631</v>
       </c>
       <c r="I40" t="n">
-        <v>0.02158</v>
+        <v>0.01833</v>
       </c>
     </row>
     <row r="41">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.0036</v>
+        <v>0.02162</v>
       </c>
       <c r="I41" t="n">
-        <v>0.00721</v>
+        <v>0.00919</v>
       </c>
     </row>
     <row r="42">
@@ -3073,10 +3073,10 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0.5224</v>
+        <v>0.49982</v>
       </c>
       <c r="I66" t="n">
-        <v>0.02945</v>
+        <v>0.01831</v>
       </c>
     </row>
     <row r="67">
@@ -3112,10 +3112,10 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0.13694</v>
+        <v>0.09189</v>
       </c>
       <c r="I67" t="n">
-        <v>0.008829999999999999</v>
+        <v>0.02086</v>
       </c>
     </row>
     <row r="68">
@@ -3153,10 +3153,10 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0.47652</v>
+        <v>0.45922</v>
       </c>
       <c r="I68" t="n">
-        <v>0.00975</v>
+        <v>0.019</v>
       </c>
     </row>
     <row r="69">
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0.009010000000000001</v>
+        <v>0.0018</v>
       </c>
       <c r="I69" t="n">
-        <v>0.008059999999999999</v>
+        <v>0.0036</v>
       </c>
     </row>
     <row r="70">
@@ -3233,10 +3233,10 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0.52324</v>
+        <v>0.5003</v>
       </c>
       <c r="I70" t="n">
-        <v>0.0246</v>
+        <v>0.0211</v>
       </c>
     </row>
     <row r="71">
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0.13874</v>
+        <v>0.0973</v>
       </c>
       <c r="I71" t="n">
-        <v>0.01348</v>
+        <v>0.02636</v>
       </c>
     </row>
     <row r="72">
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0.46162</v>
+        <v>0.45862</v>
       </c>
       <c r="I72" t="n">
-        <v>0.03647</v>
+        <v>0.02464</v>
       </c>
     </row>
     <row r="73">
@@ -3354,7 +3354,7 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0.01261</v>
+        <v>0.0036</v>
       </c>
       <c r="I73" t="n">
         <v>0.00441</v>
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0.48372</v>
+        <v>0.56048</v>
       </c>
       <c r="I74" t="n">
-        <v>0.02227</v>
+        <v>0.01399</v>
       </c>
     </row>
     <row r="75">
@@ -3432,10 +3432,10 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0.07568</v>
+        <v>0.02342</v>
       </c>
       <c r="I75" t="n">
-        <v>0.01855</v>
+        <v>0.01222</v>
       </c>
     </row>
     <row r="76">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0.45045</v>
+        <v>0.57225</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0199</v>
+        <v>0.01495</v>
       </c>
     </row>
     <row r="77">
@@ -3514,10 +3514,10 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0.01622</v>
+        <v>0.03063</v>
       </c>
       <c r="I77" t="n">
-        <v>0.01051</v>
+        <v>0.01464</v>
       </c>
     </row>
     <row r="78">
@@ -3553,10 +3553,10 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0.48685</v>
+        <v>0.56108</v>
       </c>
       <c r="I78" t="n">
-        <v>0.02018</v>
+        <v>0.0136</v>
       </c>
     </row>
     <row r="79">
@@ -3592,10 +3592,10 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0.07568</v>
+        <v>0.02342</v>
       </c>
       <c r="I79" t="n">
-        <v>0.01855</v>
+        <v>0.01222</v>
       </c>
     </row>
     <row r="80">
@@ -3633,10 +3633,10 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>0.45105</v>
+        <v>0.57273</v>
       </c>
       <c r="I80" t="n">
-        <v>0.0192</v>
+        <v>0.01482</v>
       </c>
     </row>
     <row r="81">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0.01081</v>
+        <v>0.03063</v>
       </c>
       <c r="I81" t="n">
-        <v>0.01324</v>
+        <v>0.01464</v>
       </c>
     </row>
     <row r="82">
@@ -4673,10 +4673,10 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0.49982</v>
+        <v>0.51387</v>
       </c>
       <c r="I106" t="n">
-        <v>0.02829</v>
+        <v>0.01595</v>
       </c>
     </row>
     <row r="107">
@@ -4715,7 +4715,7 @@
         <v>0.11712</v>
       </c>
       <c r="I107" t="n">
-        <v>0.02849</v>
+        <v>0.00987</v>
       </c>
     </row>
     <row r="108">
@@ -4753,10 +4753,10 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>0.47736</v>
+        <v>0.46198</v>
       </c>
       <c r="I108" t="n">
-        <v>0.01853</v>
+        <v>0.01726</v>
       </c>
     </row>
     <row r="109">
@@ -4833,10 +4833,10 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0.49586</v>
+        <v>0.51255</v>
       </c>
       <c r="I110" t="n">
-        <v>0.02908</v>
+        <v>0.01756</v>
       </c>
     </row>
     <row r="111">
@@ -4872,10 +4872,10 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>0.10811</v>
+        <v>0.11712</v>
       </c>
       <c r="I111" t="n">
-        <v>0.03121</v>
+        <v>0.01274</v>
       </c>
     </row>
     <row r="112">
@@ -4913,10 +4913,10 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>0.47039</v>
+        <v>0.45465</v>
       </c>
       <c r="I112" t="n">
-        <v>0.02187</v>
+        <v>0.01382</v>
       </c>
     </row>
     <row r="113">
@@ -4993,10 +4993,10 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0.46294</v>
+        <v>0.57333</v>
       </c>
       <c r="I114" t="n">
-        <v>0.02378</v>
+        <v>0.00801</v>
       </c>
     </row>
     <row r="115">
@@ -5032,10 +5032,10 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>0.04685</v>
+        <v>0.01802</v>
       </c>
       <c r="I115" t="n">
-        <v>0.02086</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="116">
@@ -5073,10 +5073,10 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>0.43724</v>
+        <v>0.57694</v>
       </c>
       <c r="I116" t="n">
-        <v>0.02049</v>
+        <v>0.01264</v>
       </c>
     </row>
     <row r="117">
@@ -5114,10 +5114,10 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>0.0036</v>
+        <v>0.02342</v>
       </c>
       <c r="I117" t="n">
-        <v>0.00441</v>
+        <v>0.00919</v>
       </c>
     </row>
     <row r="118">
@@ -5153,10 +5153,10 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>0.46342</v>
+        <v>0.57273</v>
       </c>
       <c r="I118" t="n">
-        <v>0.02388</v>
+        <v>0.00813</v>
       </c>
     </row>
     <row r="119">
@@ -5192,10 +5192,10 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>0.04865</v>
+        <v>0.01802</v>
       </c>
       <c r="I119" t="n">
-        <v>0.0239</v>
+        <v>0.0057</v>
       </c>
     </row>
     <row r="120">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>0.44096</v>
+        <v>0.5773</v>
       </c>
       <c r="I120" t="n">
-        <v>0.02212</v>
+        <v>0.01273</v>
       </c>
     </row>
     <row r="121">
@@ -5274,10 +5274,10 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>0.0036</v>
+        <v>0.02342</v>
       </c>
       <c r="I121" t="n">
-        <v>0.00441</v>
+        <v>0.00919</v>
       </c>
     </row>
     <row r="122">
@@ -6273,10 +6273,10 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>0.53634</v>
+        <v>0.48517</v>
       </c>
       <c r="I146" t="n">
-        <v>0.026</v>
+        <v>0.01114</v>
       </c>
     </row>
     <row r="147">
@@ -6312,7 +6312,7 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>0.16036</v>
+        <v>0.07387000000000001</v>
       </c>
       <c r="I147" t="n">
         <v>0.0155</v>
@@ -6353,10 +6353,10 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>0.47183</v>
+        <v>0.45057</v>
       </c>
       <c r="I148" t="n">
-        <v>0.02123</v>
+        <v>0.01347</v>
       </c>
     </row>
     <row r="149">
@@ -6394,10 +6394,10 @@
         </is>
       </c>
       <c r="H149" t="n">
-        <v>0.01081</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>0.00674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -6433,10 +6433,10 @@
         </is>
       </c>
       <c r="H150" t="n">
-        <v>0.53021</v>
+        <v>0.48937</v>
       </c>
       <c r="I150" t="n">
-        <v>0.03314</v>
+        <v>0.01267</v>
       </c>
     </row>
     <row r="151">
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="H151" t="n">
-        <v>0.15315</v>
+        <v>0.07928</v>
       </c>
       <c r="I151" t="n">
-        <v>0.01507</v>
+        <v>0.01837</v>
       </c>
     </row>
     <row r="152">
@@ -6513,10 +6513,10 @@
         </is>
       </c>
       <c r="H152" t="n">
-        <v>0.45069</v>
+        <v>0.44961</v>
       </c>
       <c r="I152" t="n">
-        <v>0.02459</v>
+        <v>0.02216</v>
       </c>
     </row>
     <row r="153">
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="H153" t="n">
+        <v>0.0018</v>
+      </c>
+      <c r="I153" t="n">
         <v>0.0036</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0.00441</v>
       </c>
     </row>
     <row r="154">
@@ -6593,10 +6593,10 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>0.51195</v>
+        <v>0.55015</v>
       </c>
       <c r="I154" t="n">
-        <v>0.02911</v>
+        <v>0.009849999999999999</v>
       </c>
     </row>
     <row r="155">
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>0.12072</v>
+        <v>0.01441</v>
       </c>
       <c r="I155" t="n">
-        <v>0.03447</v>
+        <v>0.00721</v>
       </c>
     </row>
     <row r="156">
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="H156" t="n">
-        <v>0.44889</v>
+        <v>0.55544</v>
       </c>
       <c r="I156" t="n">
-        <v>0.02346</v>
+        <v>0.01164</v>
       </c>
     </row>
     <row r="157">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="H157" t="n">
-        <v>0.02162</v>
+        <v>0.02883</v>
       </c>
       <c r="I157" t="n">
-        <v>0.01855</v>
+        <v>0.00674</v>
       </c>
     </row>
     <row r="158">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="H158" t="n">
-        <v>0.51435</v>
+        <v>0.54883</v>
       </c>
       <c r="I158" t="n">
-        <v>0.0289</v>
+        <v>0.01107</v>
       </c>
     </row>
     <row r="159">
@@ -6792,10 +6792,10 @@
         </is>
       </c>
       <c r="H159" t="n">
-        <v>0.12432</v>
+        <v>0.01441</v>
       </c>
       <c r="I159" t="n">
-        <v>0.03193</v>
+        <v>0.00721</v>
       </c>
     </row>
     <row r="160">
@@ -6833,10 +6833,10 @@
         </is>
       </c>
       <c r="H160" t="n">
-        <v>0.44468</v>
+        <v>0.5558</v>
       </c>
       <c r="I160" t="n">
-        <v>0.02299</v>
+        <v>0.01185</v>
       </c>
     </row>
     <row r="161">
@@ -6874,10 +6874,10 @@
         </is>
       </c>
       <c r="H161" t="n">
-        <v>0.01261</v>
+        <v>0.02883</v>
       </c>
       <c r="I161" t="n">
-        <v>0.01348</v>
+        <v>0.00674</v>
       </c>
     </row>
   </sheetData>
